--- a/classification/droptc/sentence/modern-bert/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/90995999/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3893476724624634</v>
+        <v>0.4135016202926636</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7324284911155701</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3285148143768311</v>
+        <v>0.8619974255561829</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6059927344322205</v>
+        <v>0.7196455001831055</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3128539025783539</v>
+        <v>0.9716461300849915</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8417453169822693</v>
+        <v>0.7955499291419983</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6538364291191101</v>
+        <v>0.6935728788375854</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5510728359222412</v>
+        <v>0.8882997632026672</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3948695063591003</v>
+        <v>0.6935728788375854</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.382396012544632</v>
+        <v>0.7804443836212158</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4626808762550354</v>
+        <v>0.7986195683479309</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5112152099609375</v>
+        <v>0.845471203327179</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6631042957305908</v>
+        <v>0.8451609015464783</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2784272134304047</v>
+        <v>0.9476765394210815</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8899350762367249</v>
+        <v>0.8832153677940369</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5637675523757935</v>
+        <v>0.8013305068016052</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5010959506034851</v>
+        <v>0.7027705907821655</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7122702598571777</v>
+        <v>0.9838772416114807</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7216593623161316</v>
+        <v>0.8372697234153748</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5823568105697632</v>
+        <v>0.9966661334037781</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6048579812049866</v>
+        <v>0.7686789631843567</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3785121440887451</v>
+        <v>0.9868839383125305</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7958446741104126</v>
+        <v>0.9226920008659363</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.630168080329895</v>
+        <v>0.4072683751583099</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7353950142860413</v>
+        <v>0.3703864812850952</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5518756508827209</v>
+        <v>0.9661998748779297</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3480672538280487</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5938472151756287</v>
+        <v>0.7309246063232422</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.793218731880188</v>
+        <v>0.9156843423843384</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.8240998387336731</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2695208489894867</v>
+        <v>0.9004159569740295</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4091878235340118</v>
+        <v>0.6516066789627075</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7552381753921509</v>
+        <v>0.9260940551757812</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3528290390968323</v>
+        <v>0.9728819131851196</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8314955830574036</v>
+        <v>0.9589925408363342</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7946459650993347</v>
+        <v>0.9777436256408691</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8399655222892761</v>
+        <v>0.9576911330223083</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3891645967960358</v>
+        <v>0.9774593710899353</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6384894847869873</v>
+        <v>0.2536760270595551</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7259119749069214</v>
+        <v>0.9953867793083191</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8649231791496277</v>
+        <v>0.5459956526756287</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5545911192893982</v>
+        <v>0.6934624314308167</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6214561462402344</v>
+        <v>0.9336974024772644</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3791481256484985</v>
+        <v>0.8636441230773926</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6432287096977234</v>
+        <v>0.9007911682128906</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.633442759513855</v>
+        <v>0.5350483059883118</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3072678744792938</v>
+        <v>0.834736704826355</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.9990031123161316</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6163329482078552</v>
+        <v>0.890746533870697</v>
       </c>
     </row>
     <row r="51">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4217613935470581</v>
+        <v>0.7208002209663391</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5025006532669067</v>
+        <v>0.9104065299034119</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8745283484458923</v>
+        <v>0.890746533870697</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6197965741157532</v>
+        <v>0.6715010404586792</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9221321940422058</v>
+        <v>0.9961504936218262</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4713828265666962</v>
+        <v>0.9978025555610657</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9448973536491394</v>
+        <v>0.9984292387962341</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7285944223403931</v>
+        <v>0.8667401671409607</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6933498382568359</v>
+        <v>0.9878163933753967</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6041257977485657</v>
+        <v>0.8533920049667358</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3205289542675018</v>
+        <v>0.9600825309753418</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5423895120620728</v>
+        <v>0.7941903471946716</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8533948063850403</v>
+        <v>0.8938015103340149</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2485394775867462</v>
+        <v>0.7192862033843994</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7951348423957825</v>
+        <v>0.9285613298416138</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7262140512466431</v>
+        <v>0.9285613298416138</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4664132297039032</v>
+        <v>0.788368821144104</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4713828265666962</v>
+        <v>0.9285613298416138</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8694318532943726</v>
+        <v>0.7001992464065552</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6666061878204346</v>
+        <v>0.9137355089187622</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6830376386642456</v>
+        <v>0.612444281578064</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7894377112388611</v>
+        <v>0.990213930606842</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8443443775177002</v>
+        <v>0.8769940733909607</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7146669030189514</v>
+        <v>0.6932333707809448</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6125005483627319</v>
+        <v>0.540067732334137</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7384894490242004</v>
+        <v>0.8769940733909607</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6691387295722961</v>
+        <v>0.5558538436889648</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7957755923271179</v>
+        <v>0.8769940733909607</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7981648445129395</v>
+        <v>0.9932854175567627</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.429181307554245</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7731035351753235</v>
+        <v>0.3677960336208344</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6114085912704468</v>
+        <v>0.5760805010795593</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.8433115482330322</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8046869039535522</v>
+        <v>0.8433115482330322</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5299978852272034</v>
+        <v>0.986799418926239</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7715383768081665</v>
+        <v>0.8911018967628479</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.672782301902771</v>
+        <v>0.9068043828010559</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7187298536300659</v>
+        <v>0.8344809412956238</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7157014608383179</v>
+        <v>0.6877900362014771</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5530228018760681</v>
+        <v>0.9808582663536072</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3893476724624634</v>
+        <v>0.9797782897949219</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5634300112724304</v>
+        <v>0.9797419905662537</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6391636729240417</v>
+        <v>0.9850029349327087</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5591800212860107</v>
+        <v>0.9851245284080505</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3309685885906219</v>
+        <v>0.9792938828468323</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3480672538280487</v>
+        <v>0.980226993560791</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>CommunicationIssue</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5370301604270935</v>
+        <v>0.3320885598659515</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8156704902648926</v>
+        <v>0.9856443405151367</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7194654941558838</v>
+        <v>0.8925644159317017</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8744093775749207</v>
+        <v>0.7747017741203308</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7835262417793274</v>
+        <v>0.9540420174598694</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7378703951835632</v>
+        <v>0.4857350885868073</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3369420170783997</v>
+        <v>0.6014357209205627</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7669355273246765</v>
+        <v>0.858869194984436</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.528857946395874</v>
+        <v>0.9535638689994812</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9302495121955872</v>
+        <v>0.9478442072868347</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4715624749660492</v>
+        <v>0.4487089216709137</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6388089060783386</v>
+        <v>0.5604382753372192</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6462874412536621</v>
+        <v>0.9468414187431335</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7927911281585693</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7424052953720093</v>
+        <v>0.7115302085876465</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4371479153633118</v>
+        <v>0.6042874455451965</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2705742120742798</v>
+        <v>0.8549356460571289</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3152963519096375</v>
+        <v>0.9791161417961121</v>
       </c>
     </row>
     <row r="115">
@@ -3647,14 +3647,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.303787499666214</v>
+        <v>0.7600882053375244</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7375757694244385</v>
+        <v>0.3698690533638</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6686026453971863</v>
+        <v>0.8113763332366943</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.83266681432724</v>
+        <v>0.4106615483760834</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8733019828796387</v>
+        <v>0.6487459540367126</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5794715285301208</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="121">
@@ -3815,14 +3815,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4818586707115173</v>
+        <v>0.8243167400360107</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2852860391139984</v>
+        <v>0.9595998525619507</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6798679232597351</v>
+        <v>0.8243167400360107</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4181395471096039</v>
+        <v>0.9595998525619507</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5733352303504944</v>
+        <v>0.8243167400360107</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7896430492401123</v>
+        <v>0.9953536987304688</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2705742120742798</v>
+        <v>0.2858127951622009</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8423524498939514</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8745283484458923</v>
+        <v>0.5869744420051575</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.677071213722229</v>
+        <v>0.4275873005390167</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8508989214897156</v>
+        <v>0.9916762113571167</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.430466890335083</v>
+        <v>0.654549777507782</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6087043881416321</v>
+        <v>0.9494694471359253</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6685768365859985</v>
+        <v>0.5491649508476257</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6119810342788696</v>
+        <v>0.9885158538818359</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3480672538280487</v>
+        <v>0.8231585025787354</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.715753972530365</v>
+        <v>0.9802243709564209</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5393372178077698</v>
+        <v>0.7983777523040771</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.3152963519096375</v>
+        <v>0.987863302230835</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7290042638778687</v>
+        <v>0.9923433661460876</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.722350001335144</v>
+        <v>0.7807430624961853</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6660188436508179</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3826370239257812</v>
+        <v>0.4077321588993073</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6238716244697571</v>
+        <v>0.963880181312561</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6432462334632874</v>
+        <v>0.4077321588993073</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.40420201420784</v>
+        <v>0.9598814249038696</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8345443606376648</v>
+        <v>0.7001992464065552</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5702588558197021</v>
+        <v>0.892765998840332</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8211039304733276</v>
+        <v>0.8361944556236267</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2705742120742798</v>
+        <v>0.3904615640640259</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.2852860391139984</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7808430790901184</v>
+        <v>0.418770432472229</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6488242745399475</v>
+        <v>0.9839665293693542</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6684362292289734</v>
+        <v>0.7106497883796692</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5602806210517883</v>
+        <v>0.9939180612564087</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8854524493217468</v>
+        <v>0.541843593120575</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.2793919146060944</v>
+        <v>0.9930406808853149</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.3893476724624634</v>
+        <v>0.7111175656318665</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3782347440719604</v>
+        <v>0.996177077293396</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5753481984138489</v>
+        <v>0.6637216806411743</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9421886801719666</v>
+        <v>0.9853095412254333</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4926744401454926</v>
+        <v>0.9661256074905396</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.3364416360855103</v>
+        <v>0.8292153477668762</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6531675457954407</v>
+        <v>0.562815248966217</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.9918437600135803</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6514228582382202</v>
+        <v>0.9062768220901489</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3528290390968323</v>
+        <v>0.6708741784095764</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6446942687034607</v>
+        <v>0.5854257941246033</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4650765359401703</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6033504605293274</v>
+        <v>0.6708741784095764</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7211806774139404</v>
+        <v>0.743499219417572</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2927762269973755</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5963741540908813</v>
+        <v>0.9044178128242493</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6407707333564758</v>
+        <v>0.9206574559211731</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.6710942387580872</v>
+        <v>0.9044178128242493</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.363008439540863</v>
+        <v>0.8229517340660095</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7679141759872437</v>
+        <v>0.9206574559211731</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2604509890079498</v>
+        <v>0.8789517879486084</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.4213968813419342</v>
+        <v>0.9831974506378174</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.6059927344322205</v>
+        <v>0.9597522616386414</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6860723495483398</v>
+        <v>0.6514228582382202</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.734160840511322</v>
+        <v>0.9663655757904053</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7068406939506531</v>
+        <v>0.4149949252605438</v>
       </c>
     </row>
     <row r="184">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8087567090988159</v>
+        <v>0.9990684390068054</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.5794715285301208</v>
+        <v>0.9527384638786316</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.6426036357879639</v>
+        <v>0.9578596353530884</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4259360730648041</v>
+        <v>0.9733211398124695</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8814135193824768</v>
+        <v>0.9677342772483826</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.2668625712394714</v>
+        <v>0.9654635787010193</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8460705280303955</v>
+        <v>0.9726954102516174</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4988085925579071</v>
+        <v>0.389936238527298</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.9461889266967773</v>
       </c>
     </row>
     <row r="193">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.3223458230495453</v>
+        <v>0.9719935059547424</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.8761307001113892</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7245678901672363</v>
+        <v>0.6261179447174072</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.668815016746521</v>
+        <v>0.9986407160758972</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.793222188949585</v>
+        <v>0.8140562772750854</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.6263126134872437</v>
+        <v>0.5179464221000671</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7938902378082275</v>
+        <v>0.8983545899391174</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.6863574385643005</v>
+        <v>0.884549617767334</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5265519022941589</v>
+        <v>0.9979873895645142</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6446942687034607</v>
+        <v>0.9774678945541382</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.7997088432312012</v>
       </c>
     </row>
     <row r="204">
@@ -6139,14 +6139,14 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5146612524986267</v>
+        <v>0.3718319535255432</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5674219727516174</v>
+        <v>0.6806578040122986</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4802463948726654</v>
+        <v>0.9959304928779602</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5835251808166504</v>
+        <v>0.4806329011917114</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.6204719543457031</v>
+        <v>0.9623100757598877</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9197759628295898</v>
+        <v>0.4830473363399506</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5510730147361755</v>
+        <v>0.9992769360542297</v>
       </c>
     </row>
   </sheetData>
